--- a/hardware/Motherboard_v2_bom.xlsx
+++ b/hardware/Motherboard_v2_bom.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonaCappelle\Documents\Github\motherboard\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9CD6C0-CA83-4625-BA3A-F2C9F2222B19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC90AC2-1FE5-49F7-8F6F-C57D0082ACD9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Motherboard_v2_bom" sheetId="1" r:id="rId1"/>
+    <sheet name="Motherboard_v2_bom" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>Qty</t>
   </si>
@@ -40,63 +40,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>AVAILABILITY</t>
-  </si>
-  <si>
-    <t>BUILT_BY</t>
-  </si>
-  <si>
-    <t>COPYRIGHT</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>MANUFACTURER_NAME</t>
-  </si>
-  <si>
-    <t>MANUFACTURER_PART_NUMBER</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
-    <t>MOUSER_PART_NUMBER</t>
-  </si>
-  <si>
-    <t>MOUSER_PRICE-STOCK</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>PACKAGE</t>
-  </si>
-  <si>
-    <t>PRICE</t>
-  </si>
-  <si>
-    <t>PROD_ID</t>
-  </si>
-  <si>
-    <t>PURCHASE-URL</t>
-  </si>
-  <si>
-    <t>SOURCELIBRARY</t>
-  </si>
-  <si>
-    <t>TP_SIGNAL_NAME</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>VENDOR</t>
-  </si>
-  <si>
     <t>JUMPER-PAD-2-NC_BY_TRACENO_SILK</t>
   </si>
   <si>
@@ -142,12 +85,6 @@
     <t>P-channel MOSFETs</t>
   </si>
   <si>
-    <t>TRANS-11308</t>
-  </si>
-  <si>
-    <t>2.5A/30V/105mÎ©</t>
-  </si>
-  <si>
     <t>PINHD-1X1</t>
   </si>
   <si>
@@ -235,15 +172,6 @@
     <t>Tactile Switches TACTILE</t>
   </si>
   <si>
-    <t>4.15mm</t>
-  </si>
-  <si>
-    <t>MARQUARDT</t>
-  </si>
-  <si>
-    <t>979-3006.2100</t>
-  </si>
-  <si>
     <t>32.768kHz</t>
   </si>
   <si>
@@ -259,9 +187,6 @@
     <t>Various standard crystals. Proven footprints.</t>
   </si>
   <si>
-    <t>XTAL-13062</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
@@ -280,9 +205,6 @@
     <t>Atmel SAMD21G SMART ARM-Based Microcontroller</t>
   </si>
   <si>
-    <t>IC-13064</t>
-  </si>
-  <si>
     <t>KSS-2EG4430</t>
   </si>
   <si>
@@ -301,18 +223,6 @@
     <t>U3</t>
   </si>
   <si>
-    <t>EMA_Jessica</t>
-  </si>
-  <si>
-    <t>Copyright (C) 2018 Accelerated Designs. All rights reserved</t>
-  </si>
-  <si>
-    <t>TI_2019-12-20</t>
-  </si>
-  <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>LP2985AIM5-3.3</t>
   </si>
   <si>
@@ -346,21 +256,6 @@
     <t>Ultra low capacitance double rail-to-rail ESD protection diode Check prices</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Clamp Ipp Tvs Diode Surface Mount SOT-143B </t>
-  </si>
-  <si>
-    <t>Nexperia USA Inc.</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>https://pricing.snapeda.com/search/part/PRTR5V0U2X,215/?ref=eda</t>
-  </si>
-  <si>
     <t>RN2483</t>
   </si>
   <si>
@@ -391,9 +286,6 @@
     <t>SMD antenna connector- WRL-09144</t>
   </si>
   <si>
-    <t>CONN-09193</t>
-  </si>
-  <si>
     <t>USB-RECEPTABLE</t>
   </si>
   <si>
@@ -404,13 +296,100 @@
   </si>
   <si>
     <t>USB Receptable</t>
+  </si>
+  <si>
+    <t>Reel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturer Part Number (MPN) </t>
+  </si>
+  <si>
+    <t>Ordercode Farnell</t>
+  </si>
+  <si>
+    <t>Ordercode Mouser</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>KP-2012QBC-D</t>
+  </si>
+  <si>
+    <t>Tape en reel, afgesneden</t>
+  </si>
+  <si>
+    <t>DMG2307L</t>
+  </si>
+  <si>
+    <t>U.FL-R-SMT-1(10)</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>RN2483A-I/RM104</t>
+  </si>
+  <si>
+    <t>Per stuk</t>
+  </si>
+  <si>
+    <t>SMD0805B050TF</t>
+  </si>
+  <si>
+    <t>LP2985AIM5-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>595-LM66100DCKR</t>
+  </si>
+  <si>
+    <t>ATSAMD21G18A-AUT</t>
+  </si>
+  <si>
+    <t>ABS07-32.768KHZ-T</t>
+  </si>
+  <si>
+    <t>C0805C106Z8VACTU</t>
+  </si>
+  <si>
+    <t>MC0100W0603110K</t>
+  </si>
+  <si>
+    <t>C0603C104Z4VACTU</t>
+  </si>
+  <si>
+    <t>C0603C150K4GACTU</t>
+  </si>
+  <si>
+    <t>979-3006.2114</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>RC0603JR-07470RL</t>
+  </si>
+  <si>
+    <t>MCWR06X3300FTL</t>
+  </si>
+  <si>
+    <t>M20-7830346</t>
+  </si>
+  <si>
+    <t>PTS636 SM43 SMTR LFS</t>
+  </si>
+  <si>
+    <t>611-PTS636SM43SMTRLF</t>
+  </si>
+  <si>
+    <t>Reel / afgesneden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +523,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -899,11 +890,29 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1258,22 +1267,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22942761-2D4F-4510-B530-0C5B1D0B20C0}">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="66.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18" style="4" customWidth="1"/>
+    <col min="9" max="9" width="24" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,610 +1306,692 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2217974</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2061518</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="3">
+        <v>7991983</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3">
+        <v>782631331</v>
+      </c>
+      <c r="H8" s="3">
+        <v>3551389</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2522395</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2845751</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2725611</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2773124</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="9">
         <v>30062100</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <v>30062100</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="8">
         <v>30062101</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="3">
-        <v>30062100</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="G13" s="6">
+        <v>30062114</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2101347</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="8">
         <v>330</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2447339</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="8">
         <v>470</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="3">
+        <v>9233334</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2775015</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3122185</v>
+      </c>
+      <c r="J20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="2">
+        <v>71</v>
+      </c>
+      <c r="D21" s="8">
         <v>805</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3052501</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1524157</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="X23" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2920841</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="X25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1688077</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2668482</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>